--- a/REVER_DailyTracker_20200914.xlsx
+++ b/REVER_DailyTracker_20200914.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93707BB7-F791-4CA4-B728-9400D862CBBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4840E9-7CA5-40D1-8087-D834909A6B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1240,7 +1240,9 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6">
+        <v>44088</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
